--- a/Data_all/Data_10_all.xlsx
+++ b/Data_all/Data_10_all.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="14">
   <si>
     <t>平均エラー数</t>
     <rPh sb="0" eb="2">
@@ -141,6 +141,13 @@
     </rPh>
     <rPh sb="2" eb="4">
       <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>平均</t>
+    <rPh sb="0" eb="2">
+      <t>ヘイキン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -178,7 +185,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -532,7 +539,7 @@
   <dimension ref="A1:Y15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1397,23 +1404,109 @@
         <v>1.252</v>
       </c>
     </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="4">
+        <f>AVERAGE(B3:B12)</f>
+        <v>0</v>
+      </c>
+      <c r="C13" s="4">
+        <f t="shared" ref="C13:L13" si="6">AVERAGE(C3:C12)</f>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="D13" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E13" s="4">
+        <f t="shared" si="6"/>
+        <v>0.1</v>
+      </c>
+      <c r="F13" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="4">
+        <f t="shared" si="6"/>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="H13" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I13" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J13" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K13" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L13" s="4">
+        <f t="shared" si="6"/>
+        <v>2.3333333333333334E-2</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O13" s="4">
+        <f>AVERAGE(O3:O12)</f>
+        <v>1.1393333333333333</v>
+      </c>
+      <c r="P13" s="4">
+        <f t="shared" ref="P13:Y13" si="7">AVERAGE(P3:P12)</f>
+        <v>1.2433333333333334</v>
+      </c>
+      <c r="Q13" s="4">
+        <f t="shared" si="7"/>
+        <v>0.89466666666666672</v>
+      </c>
+      <c r="R13" s="4">
+        <f t="shared" si="7"/>
+        <v>1.032</v>
+      </c>
+      <c r="S13" s="4">
+        <f t="shared" si="7"/>
+        <v>0.97266666666666668</v>
+      </c>
+      <c r="T13" s="4">
+        <f t="shared" si="7"/>
+        <v>1.4220000000000002</v>
+      </c>
+      <c r="U13" s="4">
+        <f t="shared" si="7"/>
+        <v>1.1006666666666667</v>
+      </c>
+      <c r="V13" s="4">
+        <f t="shared" si="7"/>
+        <v>1.0506666666666669</v>
+      </c>
+      <c r="W13" s="4">
+        <f t="shared" si="7"/>
+        <v>1.1080000000000001</v>
+      </c>
+      <c r="X13" s="4">
+        <f t="shared" si="7"/>
+        <v>1.0960000000000001</v>
+      </c>
+      <c r="Y13" s="4">
+        <f t="shared" si="7"/>
+        <v>1.1059333333333332</v>
+      </c>
+    </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A14" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="N14" s="6" t="s">
-        <v>11</v>
-      </c>
+      <c r="A14" s="6"/>
+      <c r="N14" s="6"/>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A15" s="7">
-        <f>AVERAGE(L3:L12)</f>
-        <v>2.3333333333333334E-2</v>
-      </c>
-      <c r="N15" s="7">
-        <f>AVERAGE(Y3:Y12)</f>
-        <v>1.1059333333333332</v>
-      </c>
+      <c r="A15" s="7"/>
+      <c r="N15" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Data_all/Data_10_all.xlsx
+++ b/Data_all/Data_10_all.xlsx
@@ -247,6 +247,411 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+          </c:errBars>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$3:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$3:$L$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.00_);[Red]\(0.00\)</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.3333333333333333E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.3333333333333333E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.13333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.3333333333333333E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="238704128"/>
+        <c:axId val="238705664"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="238704128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="238705664"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="238705664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.4"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0.00_);[Red]\(0.00\)" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="238704128"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+          </c:errBars>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$N$3:$N$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$Y$3:$Y$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.00_);[Red]\(0.00\)</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.1946666666666665</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.23</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2113333333333336</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.99866666666666659</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.91600000000000015</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.90466666666666673</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.96200000000000008</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0793333333333333</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.3106666666666666</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.252</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="239340160"/>
+        <c:axId val="239346048"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="239340160"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="239346048"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="239346048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="2"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0.00_);[Red]\(0.00\)" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="239340160"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>391583</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>147108</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>148166</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>11641</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="グラフ 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>275166</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>30691</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>31750</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>64557</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="グラフ 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -539,7 +944,7 @@
   <dimension ref="A1:Y15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="Y3" sqref="Y3:Y12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1516,6 +1921,7 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/Data_all/Data_10_all.xlsx
+++ b/Data_all/Data_10_all.xlsx
@@ -276,8 +276,86 @@
           <c:invertIfNegative val="0"/>
           <c:errBars>
             <c:errBarType val="both"/>
-            <c:errValType val="stdErr"/>
+            <c:errValType val="cust"/>
             <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$M$3:$M$12</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.1</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.1</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.26666666666666666</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.1</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$M$3:$M$12</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.1</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.1</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.26666666666666666</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.1</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
           </c:errBars>
           <c:cat>
             <c:numRef>
@@ -367,11 +445,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="238704128"/>
-        <c:axId val="238705664"/>
+        <c:axId val="238847104"/>
+        <c:axId val="238848640"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="238704128"/>
+        <c:axId val="238847104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -381,7 +459,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="238705664"/>
+        <c:crossAx val="238848640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -389,10 +467,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="238705664"/>
+        <c:axId val="238848640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="0.4"/>
+          <c:max val="0.9"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -402,7 +480,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="238704128"/>
+        <c:crossAx val="238847104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -446,8 +524,86 @@
           <c:invertIfNegative val="0"/>
           <c:errBars>
             <c:errBarType val="both"/>
-            <c:errValType val="stdErr"/>
+            <c:errValType val="cust"/>
             <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$Z$3:$Z$12</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>0.17475824571231213</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.16773656594659236</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.30302255141600659</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>9.5163018026962476E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>9.987547802694588E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.15111584959890895</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.10803497376107074</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.10449667724648261</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.40831578193571932</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.26283581694028374</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$Z$3:$Z$12</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>0.17475824571231213</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.16773656594659236</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.30302255141600659</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>9.5163018026962476E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>9.987547802694588E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.15111584959890895</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.10803497376107074</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.10449667724648261</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.40831578193571932</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.26283581694028374</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
           </c:errBars>
           <c:cat>
             <c:numRef>
@@ -537,11 +693,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="239340160"/>
-        <c:axId val="239346048"/>
+        <c:axId val="174270720"/>
+        <c:axId val="174280704"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="239340160"/>
+        <c:axId val="174270720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -551,7 +707,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="239346048"/>
+        <c:crossAx val="174280704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -559,10 +715,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="239346048"/>
+        <c:axId val="174280704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="2"/>
+          <c:max val="3"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -572,7 +728,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="239340160"/>
+        <c:crossAx val="174270720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -941,15 +1097,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y15"/>
+  <dimension ref="A1:Z15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="Y3" sqref="Y3:Y12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="Z27" sqref="Z27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A1" s="3"/>
       <c r="B1" s="8" t="s">
         <v>0</v>
@@ -979,7 +1135,7 @@
       <c r="X1" s="8"/>
       <c r="Y1" s="8"/>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A2" s="3"/>
       <c r="B2" s="1" t="s">
         <v>1</v>
@@ -1049,7 +1205,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A3" s="3">
         <v>0</v>
       </c>
@@ -1085,6 +1241,10 @@
       </c>
       <c r="L3" s="5">
         <f>AVERAGE(B3:K3)</f>
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <f>_xlfn.STDEV.P(B3:K3)</f>
         <v>0</v>
       </c>
       <c r="N3" s="3">
@@ -1124,8 +1284,12 @@
         <f>AVERAGE(O3:X3)</f>
         <v>1.1946666666666665</v>
       </c>
+      <c r="Z3">
+        <f>_xlfn.STDEV.P(O3:X3)</f>
+        <v>0.17475824571231213</v>
+      </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -1163,6 +1327,10 @@
         <f t="shared" ref="L4:L6" si="0">AVERAGE(B4:K4)</f>
         <v>0</v>
       </c>
+      <c r="M4">
+        <f t="shared" ref="M4:M12" si="1">_xlfn.STDEV.P(B4:K4)</f>
+        <v>0</v>
+      </c>
       <c r="N4" s="3">
         <v>1</v>
       </c>
@@ -1197,11 +1365,15 @@
         <v>1.2866666666666668</v>
       </c>
       <c r="Y4" s="5">
-        <f t="shared" ref="Y4:Y6" si="1">AVERAGE(O4:X4)</f>
+        <f t="shared" ref="Y4:Y6" si="2">AVERAGE(O4:X4)</f>
         <v>1.23</v>
       </c>
+      <c r="Z4">
+        <f t="shared" ref="Z4:Z12" si="3">_xlfn.STDEV.P(O4:X4)</f>
+        <v>0.16773656594659236</v>
+      </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -1239,6 +1411,10 @@
         <f t="shared" si="0"/>
         <v>3.3333333333333333E-2</v>
       </c>
+      <c r="M5">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
       <c r="N5" s="3">
         <v>2</v>
       </c>
@@ -1273,11 +1449,15 @@
         <v>1.1666666666666667</v>
       </c>
       <c r="Y5" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.2113333333333336</v>
       </c>
+      <c r="Z5">
+        <f t="shared" si="3"/>
+        <v>0.30302255141600659</v>
+      </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -1315,6 +1495,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="M6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="N6" s="3">
         <v>3</v>
       </c>
@@ -1349,11 +1533,15 @@
         <v>0.98666666666666669</v>
       </c>
       <c r="Y6" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.99866666666666659</v>
       </c>
+      <c r="Z6">
+        <f t="shared" si="3"/>
+        <v>9.5163018026962476E-2</v>
+      </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A7" s="3">
         <v>4</v>
       </c>
@@ -1389,6 +1577,10 @@
       </c>
       <c r="L7" s="5">
         <f>AVERAGE(B7:K7)</f>
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N7" s="3">
@@ -1428,8 +1620,12 @@
         <f>AVERAGE(O7:X7)</f>
         <v>0.91600000000000015</v>
       </c>
+      <c r="Z7">
+        <f t="shared" si="3"/>
+        <v>9.987547802694588E-2</v>
+      </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A8" s="3">
         <v>5</v>
       </c>
@@ -1465,6 +1661,10 @@
       </c>
       <c r="L8" s="5">
         <f>AVERAGE(B8:K8)</f>
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N8" s="3">
@@ -1504,8 +1704,12 @@
         <f>AVERAGE(O8:X8)</f>
         <v>0.90466666666666673</v>
       </c>
+      <c r="Z8">
+        <f t="shared" si="3"/>
+        <v>0.15111584959890895</v>
+      </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A9" s="3">
         <v>6</v>
       </c>
@@ -1541,6 +1745,10 @@
       </c>
       <c r="L9" s="5">
         <f>AVERAGE(B9:K9)</f>
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N9" s="3">
@@ -1580,8 +1788,12 @@
         <f>AVERAGE(O9:X9)</f>
         <v>0.96200000000000008</v>
       </c>
+      <c r="Z9">
+        <f t="shared" si="3"/>
+        <v>0.10803497376107074</v>
+      </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <v>7</v>
       </c>
@@ -1616,8 +1828,12 @@
         <v>0</v>
       </c>
       <c r="L10" s="5">
-        <f t="shared" ref="L10" si="2">AVERAGE(B10:K10)</f>
+        <f t="shared" ref="L10" si="4">AVERAGE(B10:K10)</f>
         <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
       </c>
       <c r="N10" s="3">
         <v>7</v>
@@ -1653,11 +1869,15 @@
         <v>1.08</v>
       </c>
       <c r="Y10" s="5">
-        <f t="shared" ref="Y10" si="3">AVERAGE(O10:X10)</f>
+        <f t="shared" ref="Y10" si="5">AVERAGE(O10:X10)</f>
         <v>1.0793333333333333</v>
       </c>
+      <c r="Z10">
+        <f t="shared" si="3"/>
+        <v>0.10449667724648261</v>
+      </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
         <v>8</v>
       </c>
@@ -1695,6 +1915,10 @@
         <f>AVERAGE(B11:K11)</f>
         <v>0.13333333333333333</v>
       </c>
+      <c r="M11">
+        <f t="shared" si="1"/>
+        <v>0.26666666666666666</v>
+      </c>
       <c r="N11" s="3">
         <v>8</v>
       </c>
@@ -1732,8 +1956,12 @@
         <f>AVERAGE(O11:X11)</f>
         <v>1.3106666666666666</v>
       </c>
+      <c r="Z11">
+        <f t="shared" si="3"/>
+        <v>0.40831578193571932</v>
+      </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>9</v>
       </c>
@@ -1768,8 +1996,12 @@
         <v>0</v>
       </c>
       <c r="L12" s="5">
-        <f t="shared" ref="L12" si="4">AVERAGE(B12:K12)</f>
+        <f t="shared" ref="L12" si="6">AVERAGE(B12:K12)</f>
         <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
       </c>
       <c r="N12" s="3">
         <v>9</v>
@@ -1805,11 +2037,15 @@
         <v>1.1866666666666665</v>
       </c>
       <c r="Y12" s="5">
-        <f t="shared" ref="Y12" si="5">AVERAGE(O12:X12)</f>
+        <f t="shared" ref="Y12" si="7">AVERAGE(O12:X12)</f>
         <v>1.252</v>
       </c>
+      <c r="Z12">
+        <f t="shared" si="3"/>
+        <v>0.26283581694028374</v>
+      </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
         <v>13</v>
       </c>
@@ -1818,43 +2054,43 @@
         <v>0</v>
       </c>
       <c r="C13" s="4">
-        <f t="shared" ref="C13:L13" si="6">AVERAGE(C3:C12)</f>
+        <f t="shared" ref="C13:L13" si="8">AVERAGE(C3:C12)</f>
         <v>6.6666666666666666E-2</v>
       </c>
       <c r="D13" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E13" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.1</v>
       </c>
       <c r="F13" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G13" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>6.6666666666666666E-2</v>
       </c>
       <c r="H13" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I13" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J13" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K13" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="L13" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.3333333333333334E-2</v>
       </c>
       <c r="N13" s="3" t="s">
@@ -1865,51 +2101,51 @@
         <v>1.1393333333333333</v>
       </c>
       <c r="P13" s="4">
-        <f t="shared" ref="P13:Y13" si="7">AVERAGE(P3:P12)</f>
+        <f t="shared" ref="P13:Y13" si="9">AVERAGE(P3:P12)</f>
         <v>1.2433333333333334</v>
       </c>
       <c r="Q13" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.89466666666666672</v>
       </c>
       <c r="R13" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.032</v>
       </c>
       <c r="S13" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.97266666666666668</v>
       </c>
       <c r="T13" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.4220000000000002</v>
       </c>
       <c r="U13" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.1006666666666667</v>
       </c>
       <c r="V13" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.0506666666666669</v>
       </c>
       <c r="W13" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.1080000000000001</v>
       </c>
       <c r="X13" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.0960000000000001</v>
       </c>
       <c r="Y13" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.1059333333333332</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A14" s="6"/>
       <c r="N14" s="6"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A15" s="7"/>
       <c r="N15" s="7"/>
     </row>
